--- a/Multiple_Linear_Regression/database.xlsx
+++ b/Multiple_Linear_Regression/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika.oliveira\Documents\personal_projects\UnB_TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika.oliveira\Documents\personal_projects\Multiple_Linear_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A717F5A-8F20-4BA7-998E-3B0298D06663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A22E2DE-74FA-4B3B-B45D-B0CD5CEC9A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AF$345</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4170,7 +4171,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="118" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -38004,12 +38005,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593BFA81-112B-48A9-B353-7131BAB1F04E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -38045,7 +38043,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -38091,7 +38089,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -38114,7 +38112,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -38137,7 +38135,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -38183,7 +38181,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>432</v>
       </c>
@@ -38206,7 +38204,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>439</v>
       </c>
@@ -38229,7 +38227,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>446</v>
       </c>
@@ -38275,7 +38273,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>457</v>
       </c>
@@ -38298,7 +38296,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -38321,7 +38319,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -38344,7 +38342,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>473</v>
       </c>
@@ -38390,7 +38388,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>483</v>
       </c>
@@ -38413,7 +38411,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>489</v>
       </c>
@@ -38436,7 +38434,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>496</v>
       </c>
@@ -38459,7 +38457,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>502</v>
       </c>
@@ -38505,7 +38503,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>513</v>
       </c>
@@ -38528,7 +38526,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>518</v>
       </c>
@@ -38551,7 +38549,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>524</v>
       </c>
@@ -38574,7 +38572,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>530</v>
       </c>
@@ -38597,7 +38595,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -38620,7 +38618,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>541</v>
       </c>
@@ -38643,7 +38641,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>547</v>
       </c>
@@ -38666,7 +38664,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -38689,7 +38687,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>557</v>
       </c>
@@ -38712,7 +38710,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>563</v>
       </c>
@@ -38735,7 +38733,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>569</v>
       </c>
@@ -38758,7 +38756,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>575</v>
       </c>
@@ -38781,7 +38779,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>581</v>
       </c>
@@ -38804,7 +38802,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>587</v>
       </c>
@@ -38827,7 +38825,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>593</v>
       </c>
@@ -38850,7 +38848,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>599</v>
       </c>
@@ -38896,7 +38894,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>610</v>
       </c>
@@ -38919,7 +38917,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
         <v>616</v>
       </c>
@@ -38942,7 +38940,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
@@ -38965,7 +38963,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>627</v>
       </c>
@@ -39011,7 +39009,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>638</v>
       </c>
@@ -39034,7 +39032,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>17</v>
       </c>
@@ -39057,7 +39055,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>18</v>
       </c>
@@ -39080,7 +39078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
         <v>19</v>
       </c>
@@ -39103,7 +39101,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>659</v>
       </c>
@@ -39126,7 +39124,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
         <v>665</v>
       </c>
@@ -39149,7 +39147,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -39172,7 +39170,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -39195,7 +39193,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>679</v>
       </c>
@@ -39218,7 +39216,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>684</v>
       </c>
@@ -39241,7 +39239,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>690</v>
       </c>
@@ -39264,7 +39262,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>696</v>
       </c>
@@ -39287,7 +39285,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>702</v>
       </c>
@@ -39310,7 +39308,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>708</v>
       </c>
@@ -39333,7 +39331,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
         <v>714</v>
       </c>
@@ -39356,7 +39354,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
         <v>720</v>
       </c>
@@ -39379,7 +39377,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
         <v>726</v>
       </c>
@@ -39402,7 +39400,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>732</v>
       </c>
@@ -39425,7 +39423,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>737</v>
       </c>
@@ -39448,7 +39446,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>743</v>
       </c>
@@ -39471,7 +39469,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>749</v>
       </c>
@@ -39494,7 +39492,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
         <v>755</v>
       </c>
@@ -39517,7 +39515,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>22</v>
       </c>
@@ -39540,7 +39538,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
         <v>766</v>
       </c>
@@ -39563,7 +39561,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>773</v>
       </c>
@@ -39586,7 +39584,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>23</v>
       </c>
@@ -39632,7 +39630,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>789</v>
       </c>
@@ -39655,7 +39653,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>25</v>
       </c>
@@ -39678,7 +39676,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>800</v>
       </c>
@@ -39701,7 +39699,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>806</v>
       </c>
@@ -39724,7 +39722,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>812</v>
       </c>
@@ -39747,7 +39745,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>818</v>
       </c>
@@ -39770,7 +39768,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>824</v>
       </c>
@@ -39793,7 +39791,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>830</v>
       </c>
@@ -39816,7 +39814,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>836</v>
       </c>
@@ -39839,7 +39837,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>842</v>
       </c>
@@ -39862,7 +39860,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>848</v>
       </c>
@@ -39885,7 +39883,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>26</v>
       </c>
@@ -39908,7 +39906,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>27</v>
       </c>
@@ -39931,7 +39929,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>863</v>
       </c>
@@ -39954,7 +39952,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>869</v>
       </c>
@@ -39977,7 +39975,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>28</v>
       </c>
@@ -40000,7 +39998,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>879</v>
       </c>
@@ -40023,7 +40021,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>885</v>
       </c>
@@ -40046,7 +40044,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>890</v>
       </c>
@@ -40069,7 +40067,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>896</v>
       </c>
@@ -40092,7 +40090,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>901</v>
       </c>
@@ -40115,7 +40113,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="s">
         <v>29</v>
       </c>
@@ -40138,7 +40136,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>912</v>
       </c>
@@ -40161,7 +40159,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>917</v>
       </c>
@@ -40184,7 +40182,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>923</v>
       </c>
@@ -40207,7 +40205,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
         <v>929</v>
       </c>
@@ -40230,7 +40228,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
         <v>935</v>
       </c>
@@ -40253,7 +40251,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>941</v>
       </c>
@@ -40276,7 +40274,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>947</v>
       </c>
@@ -40299,7 +40297,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>953</v>
       </c>
@@ -40322,7 +40320,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
         <v>959</v>
       </c>
@@ -40345,7 +40343,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>965</v>
       </c>
@@ -40368,7 +40366,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>971</v>
       </c>
@@ -40392,13 +40390,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G103" xr:uid="{593BFA81-112B-48A9-B353-7131BAB1F04E}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="withdrawal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -40408,8 +40399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0909EC-9046-46E2-8E72-9F6858712570}">
   <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="I270" sqref="I270"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
